--- a/Transdict2.xlsx
+++ b/Transdict2.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szata\Codes\StoriesTeams\DispatchOptimisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szata\Codes\StoriesTeams\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B95F19E-23F3-4C42-BBD4-48BCF1254BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6DA6C5-20C9-42BA-A810-4D3F01F3CDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>BAT_ESSm</t>
   </si>
@@ -94,19 +105,40 @@
   </si>
   <si>
     <t>Thermal_Storage_Units</t>
+  </si>
+  <si>
+    <t>cost_obj</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>CBD</t>
+  </si>
+  <si>
+    <t>Cost_operation_ESS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,8 +161,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,22 +460,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -454,7 +492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -471,7 +509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -488,7 +526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -505,7 +543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -522,7 +560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -539,9 +577,75 @@
         <v>21</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="F16" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A2:A5 A17:A20 D17:D20">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
